--- a/notebooks/flare_diagnostics2/flare_diagnostics2.xlsx
+++ b/notebooks/flare_diagnostics2/flare_diagnostics2.xlsx
@@ -465,7 +465,7 @@
   <dimension ref="A1:E740"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
